--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/机械设备制造业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/机械设备制造业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,623 +558,376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5855303.265</v>
+        <v>48608147.8189588</v>
       </c>
       <c r="C2" t="n">
-        <v>1102320.14</v>
+        <v>34811656.7660067</v>
       </c>
       <c r="D2" t="n">
-        <v>101902.94</v>
+        <v>116271.35536369</v>
       </c>
       <c r="E2" t="n">
-        <v>37294993</v>
+        <v>136763028.847635</v>
       </c>
       <c r="F2" t="n">
-        <v>409796</v>
+        <v>649157.523516963</v>
       </c>
       <c r="G2" t="n">
-        <v>5040606.68</v>
+        <v>35843173.934541</v>
       </c>
       <c r="H2" t="n">
-        <v>14260571.1</v>
+        <v>79939569.1049086</v>
       </c>
       <c r="I2" t="n">
-        <v>316494112.822</v>
+        <v>1918493266.60151</v>
       </c>
       <c r="J2" t="n">
-        <v>44696373.7703003</v>
+        <v>181948157.225608</v>
       </c>
       <c r="K2" t="n">
-        <v>17599116.582302</v>
+        <v>51324246.7809692</v>
       </c>
       <c r="L2" t="n">
-        <v>99803575.2381524</v>
+        <v>427243804.314874</v>
       </c>
       <c r="M2" t="n">
-        <v>416297688.060152</v>
+        <v>2345737070.91639</v>
       </c>
       <c r="N2" t="n">
-        <v>161245584.7</v>
+        <v>961425152.525429</v>
       </c>
       <c r="O2" t="n">
-        <v>16238911.4185002</v>
+        <v>76508815.3334567</v>
       </c>
       <c r="P2" t="n">
-        <v>21269173.4670499</v>
+        <v>117462584.97484</v>
       </c>
       <c r="Q2" t="n">
-        <v>3606135.41</v>
+        <v>13237790.977802</v>
       </c>
       <c r="R2" t="n">
-        <v>5646931</v>
+        <v>35824634.4469656</v>
       </c>
       <c r="S2" t="n">
-        <v>2495449.1</v>
+        <v>12733874.8306202</v>
       </c>
       <c r="T2" t="n">
-        <v>8072905.822</v>
+        <v>64019969.4790977</v>
       </c>
       <c r="U2" t="n">
-        <v>1992402.165</v>
+        <v>6878701.69577159</v>
       </c>
       <c r="V2" t="n">
-        <v>60529836</v>
+        <v>414545659.334656</v>
       </c>
       <c r="W2" t="n">
-        <v>4320328</v>
+        <v>33031104.591358</v>
       </c>
       <c r="X2" t="n">
-        <v>4514651.2</v>
+        <v>32050748.763647</v>
       </c>
       <c r="Y2" t="n">
-        <v>4396.3</v>
+        <v>8014624.6052345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7263082.69563736</v>
+        <v>29359994.0276077</v>
       </c>
       <c r="C3" t="n">
-        <v>3713337.23600481</v>
+        <v>54503083.4775796</v>
       </c>
       <c r="D3" t="n">
-        <v>111058.6637496</v>
+        <v>190174.078387558</v>
       </c>
       <c r="E3" t="n">
-        <v>30438265.5641779</v>
+        <v>148771053.267605</v>
       </c>
       <c r="F3" t="n">
-        <v>217570.494834632</v>
+        <v>3860360.68714429</v>
       </c>
       <c r="G3" t="n">
-        <v>11947151.1711314</v>
+        <v>37150325.0622707</v>
       </c>
       <c r="H3" t="n">
-        <v>20006052.7969238</v>
+        <v>107852738.804949</v>
       </c>
       <c r="I3" t="n">
-        <v>333721139.640844</v>
+        <v>2092464904.31399</v>
       </c>
       <c r="J3" t="n">
-        <v>45865650.9336499</v>
+        <v>229213675.386193</v>
       </c>
       <c r="K3" t="n">
-        <v>15039311.6679537</v>
+        <v>59871462.273022</v>
       </c>
       <c r="L3" t="n">
-        <v>110601751.768332</v>
+        <v>490971583.165892</v>
       </c>
       <c r="M3" t="n">
-        <v>444322891.409176</v>
+        <v>2583436487.47989</v>
       </c>
       <c r="N3" t="n">
-        <v>161357091.852121</v>
+        <v>1045910420.60541</v>
       </c>
       <c r="O3" t="n">
-        <v>22052278.9123984</v>
+        <v>74144389.0350911</v>
       </c>
       <c r="P3" t="n">
-        <v>27644510.2543304</v>
+        <v>127742056.471586</v>
       </c>
       <c r="Q3" t="n">
-        <v>2221718.69242757</v>
+        <v>9711740.794389959</v>
       </c>
       <c r="R3" t="n">
-        <v>6776944.22380139</v>
+        <v>30933788.4868754</v>
       </c>
       <c r="S3" t="n">
-        <v>1934548.12054538</v>
+        <v>13602758.4212879</v>
       </c>
       <c r="T3" t="n">
-        <v>11346932.9816784</v>
+        <v>72177674.7115858</v>
       </c>
       <c r="U3" t="n">
-        <v>2442910.94607909</v>
+        <v>4233025.36330011</v>
       </c>
       <c r="V3" t="n">
-        <v>62980220.73732</v>
+        <v>439035055.780409</v>
       </c>
       <c r="W3" t="n">
-        <v>5142130.96698508</v>
+        <v>50963528.0896534</v>
       </c>
       <c r="X3" t="n">
-        <v>5821777.06400991</v>
+        <v>34344498.9448046</v>
       </c>
       <c r="Y3" t="n">
-        <v>345.433416152065</v>
+        <v>9864683.710731709</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15791682.9911707</v>
+        <v>36787937.633007</v>
       </c>
       <c r="C4" t="n">
-        <v>9143680.36697343</v>
+        <v>71445765.8135972</v>
       </c>
       <c r="D4" t="n">
-        <v>253354.129382901</v>
+        <v>273793.174819245</v>
       </c>
       <c r="E4" t="n">
-        <v>71895353.7831298</v>
+        <v>173771980.405066</v>
       </c>
       <c r="F4" t="n">
-        <v>578242.266970297</v>
+        <v>5002542.66028873</v>
       </c>
       <c r="G4" t="n">
-        <v>18980117.597365</v>
+        <v>66147690.5634664</v>
       </c>
       <c r="H4" t="n">
-        <v>36318386.4502862</v>
+        <v>155566036.471954</v>
       </c>
       <c r="I4" t="n">
-        <v>720950146.79484</v>
+        <v>2593410691.17338</v>
       </c>
       <c r="J4" t="n">
-        <v>67836822.9005589</v>
+        <v>278708210.105854</v>
       </c>
       <c r="K4" t="n">
-        <v>27582031.529921</v>
+        <v>75145402.5169072</v>
       </c>
       <c r="L4" t="n">
-        <v>187914034.47165</v>
+        <v>644122010.257777</v>
       </c>
       <c r="M4" t="n">
-        <v>908864181.26649</v>
+        <v>3237532701.43116</v>
       </c>
       <c r="N4" t="n">
-        <v>327664398.290788</v>
+        <v>1346666318.65168</v>
       </c>
       <c r="O4" t="n">
-        <v>31905725.2201815</v>
+        <v>92378564.7322892</v>
       </c>
       <c r="P4" t="n">
-        <v>60589454.8209888</v>
+        <v>197889832.902727</v>
       </c>
       <c r="Q4" t="n">
-        <v>6423030.45909493</v>
+        <v>6452608.27614006</v>
       </c>
       <c r="R4" t="n">
-        <v>16085838.3488389</v>
+        <v>29792014.5411201</v>
       </c>
       <c r="S4" t="n">
-        <v>3994504.02221694</v>
+        <v>20222237.1116848</v>
       </c>
       <c r="T4" t="n">
-        <v>36589157.5445865</v>
+        <v>92858347.2072369</v>
       </c>
       <c r="U4" t="n">
-        <v>6800130.94128882</v>
+        <v>3115818.60898464</v>
       </c>
       <c r="V4" t="n">
-        <v>146463704.545723</v>
+        <v>457718862.242611</v>
       </c>
       <c r="W4" t="n">
-        <v>8639184.10115966</v>
+        <v>67244202.9020021</v>
       </c>
       <c r="X4" t="n">
-        <v>15328671.5603479</v>
+        <v>45466764.3943041</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.39551663107</v>
+        <v>14877770.5154122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29281267.08398</v>
+        <v>4559002.66154467</v>
       </c>
       <c r="C5" t="n">
-        <v>19035718.9239546</v>
+        <v>96364180.4545911</v>
       </c>
       <c r="D5" t="n">
-        <v>52775.8726865191</v>
-      </c>
-      <c r="E5" t="n">
-        <v>84842149.8679516</v>
-      </c>
+        <v>157262.899915151</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>336203.140981248</v>
-      </c>
-      <c r="G5" t="n">
-        <v>17337407.170806</v>
-      </c>
-      <c r="H5" t="n">
-        <v>44524690.4580065</v>
-      </c>
+        <v>931580.365998331</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>1176814542.47194</v>
+        <v>2640140890.44942</v>
       </c>
       <c r="J5" t="n">
-        <v>99998540.27722269</v>
+        <v>292473708.530355</v>
       </c>
       <c r="K5" t="n">
-        <v>32159130.3741196</v>
+        <v>75007431.49611241</v>
       </c>
       <c r="L5" t="n">
-        <v>280085110.367505</v>
+        <v>669683497.826342</v>
       </c>
       <c r="M5" t="n">
-        <v>1456899652.83944</v>
+        <v>3309824388.27577</v>
       </c>
       <c r="N5" t="n">
-        <v>610576583.086427</v>
+        <v>1463235140.04276</v>
       </c>
       <c r="O5" t="n">
-        <v>59209569.2534116</v>
+        <v>118833232.621997</v>
       </c>
       <c r="P5" t="n">
-        <v>88717870.46275111</v>
+        <v>183369125.177879</v>
       </c>
       <c r="Q5" t="n">
-        <v>8646251.72258532</v>
+        <v>154603915.81727</v>
       </c>
       <c r="R5" t="n">
-        <v>20913526.5017935</v>
+        <v>38146903.8861179</v>
       </c>
       <c r="S5" t="n">
-        <v>7051854.63001237</v>
-      </c>
-      <c r="T5" t="n">
-        <v>32480739.1641406</v>
-      </c>
+        <v>15390995.1794166</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>4529452.57982993</v>
+        <v>3266177.03765952</v>
       </c>
       <c r="V5" t="n">
-        <v>258485039.967389</v>
-      </c>
-      <c r="W5" t="n">
-        <v>17270879.6574097</v>
-      </c>
+        <v>419863498.779457</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>16861737.477407</v>
+        <v>49386606.1475501</v>
       </c>
       <c r="Y5" t="n">
-        <v>4588265.16657691</v>
+        <v>17657914.1281745</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48608147.8189588</v>
+        <v>5647895.28644829</v>
       </c>
       <c r="C6" t="n">
-        <v>34811656.7660067</v>
+        <v>117137923.144233</v>
       </c>
       <c r="D6" t="n">
-        <v>116271.35536369</v>
-      </c>
-      <c r="E6" t="n">
-        <v>136763028.847635</v>
-      </c>
+        <v>216396.332444894</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>649157.523516963</v>
-      </c>
-      <c r="G6" t="n">
-        <v>35843173.934541</v>
-      </c>
-      <c r="H6" t="n">
-        <v>79939569.1049086</v>
-      </c>
+        <v>1470038.52957052</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>1918493266.60151</v>
+        <v>2956524769.50603</v>
       </c>
       <c r="J6" t="n">
-        <v>181948157.225608</v>
+        <v>299920912.165912</v>
       </c>
       <c r="K6" t="n">
-        <v>51324246.7809692</v>
+        <v>99314647.077068</v>
       </c>
       <c r="L6" t="n">
-        <v>427243804.314874</v>
+        <v>712396891.493023</v>
       </c>
       <c r="M6" t="n">
-        <v>2345737070.91639</v>
+        <v>3668921660.99905</v>
       </c>
       <c r="N6" t="n">
-        <v>961425152.525429</v>
+        <v>1582123535.31521</v>
       </c>
       <c r="O6" t="n">
-        <v>76508815.3334567</v>
+        <v>75652474.7489419</v>
       </c>
       <c r="P6" t="n">
-        <v>117462584.97484</v>
+        <v>237508857.501101</v>
       </c>
       <c r="Q6" t="n">
-        <v>13237790.977802</v>
+        <v>159074228.832073</v>
       </c>
       <c r="R6" t="n">
-        <v>35824634.4469656</v>
+        <v>44939144.1340287</v>
       </c>
       <c r="S6" t="n">
-        <v>12733874.8306202</v>
-      </c>
-      <c r="T6" t="n">
-        <v>64019969.4790977</v>
-      </c>
+        <v>17002260.3458028</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>6878701.69577159</v>
+        <v>3629508.63922173</v>
       </c>
       <c r="V6" t="n">
-        <v>414545659.334656</v>
-      </c>
-      <c r="W6" t="n">
-        <v>33031104.591358</v>
-      </c>
+        <v>484041557.559079</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>32050748.763647</v>
+        <v>55511629.0832044</v>
       </c>
       <c r="Y6" t="n">
-        <v>8014624.6052345</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>29359994.0276077</v>
-      </c>
-      <c r="C7" t="n">
-        <v>54503083.4775796</v>
-      </c>
-      <c r="D7" t="n">
-        <v>190174.078387558</v>
-      </c>
-      <c r="E7" t="n">
-        <v>148771053.267605</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3860360.68714429</v>
-      </c>
-      <c r="G7" t="n">
-        <v>37150325.0622707</v>
-      </c>
-      <c r="H7" t="n">
-        <v>107852738.804949</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2092464904.31399</v>
-      </c>
-      <c r="J7" t="n">
-        <v>229213675.386193</v>
-      </c>
-      <c r="K7" t="n">
-        <v>59871462.273022</v>
-      </c>
-      <c r="L7" t="n">
-        <v>490971583.165892</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2583436487.47989</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1045910420.60541</v>
-      </c>
-      <c r="O7" t="n">
-        <v>74144389.0350911</v>
-      </c>
-      <c r="P7" t="n">
-        <v>127742056.471586</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>9711740.794389959</v>
-      </c>
-      <c r="R7" t="n">
-        <v>30933788.4868754</v>
-      </c>
-      <c r="S7" t="n">
-        <v>13602758.4212879</v>
-      </c>
-      <c r="T7" t="n">
-        <v>72177674.7115858</v>
-      </c>
-      <c r="U7" t="n">
-        <v>4233025.36330011</v>
-      </c>
-      <c r="V7" t="n">
-        <v>439035055.780409</v>
-      </c>
-      <c r="W7" t="n">
-        <v>50963528.0896534</v>
-      </c>
-      <c r="X7" t="n">
-        <v>34344498.9448046</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9864683.710731709</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>36787937.633007</v>
-      </c>
-      <c r="C8" t="n">
-        <v>71445765.8135972</v>
-      </c>
-      <c r="D8" t="n">
-        <v>273793.174819245</v>
-      </c>
-      <c r="E8" t="n">
-        <v>173771980.405066</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5002542.66028873</v>
-      </c>
-      <c r="G8" t="n">
-        <v>66147690.5634664</v>
-      </c>
-      <c r="H8" t="n">
-        <v>155566036.471954</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2593410691.17338</v>
-      </c>
-      <c r="J8" t="n">
-        <v>278708210.105854</v>
-      </c>
-      <c r="K8" t="n">
-        <v>75145402.5169072</v>
-      </c>
-      <c r="L8" t="n">
-        <v>644122010.257777</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3237532701.43116</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1346666318.65168</v>
-      </c>
-      <c r="O8" t="n">
-        <v>92378564.7322892</v>
-      </c>
-      <c r="P8" t="n">
-        <v>197889832.902727</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>6452608.27614006</v>
-      </c>
-      <c r="R8" t="n">
-        <v>29792014.5411201</v>
-      </c>
-      <c r="S8" t="n">
-        <v>20222237.1116848</v>
-      </c>
-      <c r="T8" t="n">
-        <v>92858347.2072369</v>
-      </c>
-      <c r="U8" t="n">
-        <v>3115818.60898464</v>
-      </c>
-      <c r="V8" t="n">
-        <v>457718862.242611</v>
-      </c>
-      <c r="W8" t="n">
-        <v>67244202.9020021</v>
-      </c>
-      <c r="X8" t="n">
-        <v>45466764.3943041</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>14877770.5154122</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4559002.66154467</v>
-      </c>
-      <c r="C9" t="n">
-        <v>96364180.4545911</v>
-      </c>
-      <c r="D9" t="n">
-        <v>157262.899915151</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>931580.365998331</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>2640140890.44942</v>
-      </c>
-      <c r="J9" t="n">
-        <v>292473708.530355</v>
-      </c>
-      <c r="K9" t="n">
-        <v>75007431.49611241</v>
-      </c>
-      <c r="L9" t="n">
-        <v>669683497.826342</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3309824388.27577</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1463235140.04276</v>
-      </c>
-      <c r="O9" t="n">
-        <v>118833232.621997</v>
-      </c>
-      <c r="P9" t="n">
-        <v>183369125.177879</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>154603915.81727</v>
-      </c>
-      <c r="R9" t="n">
-        <v>38146903.8861179</v>
-      </c>
-      <c r="S9" t="n">
-        <v>15390995.1794166</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>3266177.03765952</v>
-      </c>
-      <c r="V9" t="n">
-        <v>419863498.779457</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
-        <v>49386606.1475501</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>17657914.1281745</v>
+        <v>22084386.9397941</v>
       </c>
     </row>
   </sheetData>
